--- a/Professional - Predictive Modeling/Gage Linearity and Bias/ModelComparison.xlsx
+++ b/Professional - Predictive Modeling/Gage Linearity and Bias/ModelComparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labadmin\Documents\R_WIP\public\Professional - Predictive Modeling\Gage Linearity and Bias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{128360EF-53D5-4FDE-885D-16109290EF0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E6D905-C9FD-44E2-85ED-82220173BCF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{005DEBF3-FAAE-4C00-8FBC-D24E95C467F1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sample</t>
   </si>
@@ -108,13 +108,16 @@
   </si>
   <si>
     <t>SR GLB2</t>
+  </si>
+  <si>
+    <t>TOTALS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,8 +125,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,12 +149,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -151,14 +180,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,672 +526,809 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6E3A10-A3A4-46AB-9605-15084771EB0C}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H8"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.28515625" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1.5680000000000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1.98</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1.87</v>
       </c>
-      <c r="F2" s="1">
+      <c r="E2" s="4"/>
+      <c r="F2" s="7">
         <f>-1.5106 + 1.4862*C2</f>
         <v>1.4320760000000001</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="7">
         <f>(B2 - F2)^2</f>
         <v>1.8475333775999983E-2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="7">
         <f>(F2 - AVERAGE($B$2:$B$8))^2</f>
         <v>9.7385723327020515E-2</v>
       </c>
-      <c r="I2" s="2">
-        <f>1.0542 + 0.4612*B2</f>
-        <v>1.7773616000000001</v>
-      </c>
-      <c r="J2" s="2">
-        <f>(D2 - I2)^2</f>
-        <v>8.5818731545600022E-3</v>
-      </c>
-      <c r="K2" s="2">
-        <f>(I2 - AVERAGE($D$2:$D$8))^2</f>
-        <v>6.595036256600832E-3</v>
+      <c r="I2" s="9">
+        <f>-1.5799 + 1.7885*D2</f>
+        <v>1.7645950000000001</v>
+      </c>
+      <c r="J2" s="9">
+        <f>(B2 - I2)^2</f>
+        <v>3.8649594025000032E-2</v>
+      </c>
+      <c r="K2" s="9">
+        <f>(I2 - AVERAGE($B$2:$B$8))^2</f>
+        <v>4.1829014744897304E-4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1.591</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2.08</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1.66</v>
       </c>
-      <c r="F3" s="1">
+      <c r="E3" s="4"/>
+      <c r="F3" s="7">
         <f t="shared" ref="F3:F8" si="0">-1.5106 + 1.4862*C3</f>
         <v>1.5806959999999999</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="7">
         <f t="shared" ref="G3:G8" si="1">(B3 - F3)^2</f>
         <v>1.0617241600000187E-4</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="7">
         <f t="shared" ref="H3:H8" si="2">(F3 - AVERAGE($B$2:$B$8))^2</f>
         <v>2.6714875109877686E-2</v>
       </c>
-      <c r="I3" s="2">
-        <f t="shared" ref="I3:I8" si="3">1.0542 + 0.4612*B3</f>
-        <v>1.7879692</v>
-      </c>
-      <c r="J3" s="2">
-        <f>(D3 - I3)^2</f>
-        <v>1.637611614864003E-2</v>
-      </c>
-      <c r="K3" s="2">
-        <f t="shared" ref="K3:K8" si="4">(I3 - AVERAGE($D$2:$D$8))^2</f>
-        <v>4.984674679252267E-3</v>
+      <c r="I3" s="9">
+        <f t="shared" ref="I3:I8" si="3">-1.5799 + 1.7885*D3</f>
+        <v>1.3890099999999996</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J8" si="4">(B3 - I3)^2</f>
+        <v>4.0799960100000136E-2</v>
+      </c>
+      <c r="K3" s="9">
+        <f t="shared" ref="K3:K8" si="5">(I3 - AVERAGE($B$2:$B$8))^2</f>
+        <v>0.12611934622244944</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1.5449999999999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>2.17</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1.79</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E4" s="4"/>
+      <c r="F4" s="7">
         <f t="shared" si="0"/>
         <v>1.7144539999999997</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="7">
         <f t="shared" si="1"/>
         <v>2.8714658115999922E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="7">
         <f t="shared" si="2"/>
         <v>8.8142823844901495E-4</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="9">
         <f t="shared" si="3"/>
-        <v>1.7667540000000002</v>
-      </c>
-      <c r="J4" s="2">
-        <f>(D4 - I4)^2</f>
-        <v>5.4037651599999432E-4</v>
-      </c>
-      <c r="K4" s="2">
+        <v>1.6215149999999998</v>
+      </c>
+      <c r="J4" s="9">
         <f t="shared" si="4"/>
-        <v>8.4304401894693941E-3</v>
+        <v>5.8545452249999831E-3</v>
+      </c>
+      <c r="K4" s="9">
+        <f t="shared" si="5"/>
+        <v>1.5037591347449097E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1.488</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1.95</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1.67</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E5" s="4"/>
+      <c r="F5" s="7">
         <f t="shared" si="0"/>
         <v>1.3874899999999999</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="7">
         <f t="shared" si="1"/>
         <v>1.010226010000002E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="7">
         <f t="shared" si="2"/>
         <v>0.12720126050816355</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="9">
         <f t="shared" si="3"/>
-        <v>1.7404656000000001</v>
-      </c>
-      <c r="J5" s="2">
-        <f>(D5 - I5)^2</f>
-        <v>4.9654007833600184E-3</v>
-      </c>
-      <c r="K5" s="2">
+        <v>1.4068949999999998</v>
+      </c>
+      <c r="J5" s="9">
         <f t="shared" si="4"/>
-        <v>1.3948986742543705E-2</v>
+        <v>6.5780210250000332E-3</v>
+      </c>
+      <c r="K5" s="9">
+        <f t="shared" si="5"/>
+        <v>0.11373611714744933</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1.48</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>2.15</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>1.81</v>
       </c>
-      <c r="F6" s="1">
+      <c r="E6" s="4"/>
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>1.6847299999999998</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="7">
         <f t="shared" si="1"/>
         <v>4.1914372899999941E-2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="7">
         <f t="shared" si="2"/>
         <v>3.5298875938776053E-3</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="9">
         <f t="shared" si="3"/>
-        <v>1.7367759999999999</v>
-      </c>
-      <c r="J6" s="2">
-        <f>(D6 - I6)^2</f>
-        <v>5.361754176000026E-3</v>
-      </c>
-      <c r="K6" s="2">
+        <v>1.6572850000000001</v>
+      </c>
+      <c r="J6" s="9">
         <f t="shared" si="4"/>
-        <v>1.4834126420898036E-2</v>
+        <v>3.1429971225000047E-2</v>
+      </c>
+      <c r="K6" s="9">
+        <f t="shared" si="5"/>
+        <v>7.5442873474490107E-3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>2.3679999999999999</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>2.52</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>2.14</v>
       </c>
-      <c r="F7" s="1">
+      <c r="E7" s="4"/>
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>2.2346240000000002</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="7">
         <f t="shared" si="1"/>
         <v>1.7789157375999926E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="7">
         <f t="shared" si="2"/>
         <v>0.24057175149844884</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="9">
         <f t="shared" si="3"/>
-        <v>2.1463216000000003</v>
-      </c>
-      <c r="J7" s="2">
-        <f>(D7 - I7)^2</f>
-        <v>3.9962626560001888E-5</v>
-      </c>
-      <c r="K7" s="2">
+        <v>2.24749</v>
+      </c>
+      <c r="J7" s="9">
         <f t="shared" si="4"/>
-        <v>8.2800161157172286E-2</v>
+        <v>1.4522660099999975E-2</v>
+      </c>
+      <c r="K7" s="9">
+        <f t="shared" si="5"/>
+        <v>0.25335834622244868</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>2.169</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>2.48</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="F8" s="1">
+      <c r="E8" s="4"/>
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>2.1751759999999996</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="7">
         <f t="shared" si="1"/>
         <v>3.8142975999994015E-5</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="7">
         <f t="shared" si="2"/>
         <v>0.18578957024130549</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="9">
         <f t="shared" si="3"/>
-        <v>2.0545428000000001</v>
-      </c>
-      <c r="J8" s="2">
-        <f>(D8 - I8)^2</f>
-        <v>2.3892503183999155E-4</v>
-      </c>
-      <c r="K8" s="2">
+        <v>2.1222949999999994</v>
+      </c>
+      <c r="J8" s="9">
         <f t="shared" si="4"/>
-        <v>3.8404778419595074E-2</v>
+        <v>2.181357025000062E-3</v>
+      </c>
+      <c r="K8" s="9">
+        <f t="shared" si="5"/>
+        <v>0.1429990431474483</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
+      <c r="B9" s="4"/>
+      <c r="C9" s="1">
         <v>2.36</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>2.04</v>
       </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10">
+      <c r="B10" s="4"/>
+      <c r="C10" s="1">
         <v>2.5299999999999998</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>2.1</v>
       </c>
-      <c r="G10" s="1">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1">
+        <v>2.44</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="7">
         <f>SUM(G2:G8)</f>
         <v>0.11714009765999979</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H13" s="7">
         <f>SUM(H2:H8)</f>
         <v>0.6820744965171428</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J13" s="9">
         <f>SUM(J2:J8)</f>
-        <v>3.6104408436960063E-2</v>
-      </c>
-      <c r="K10" s="2">
+        <v>0.14001610872500025</v>
+      </c>
+      <c r="K13" s="9">
         <f>SUM(K2:K8)</f>
-        <v>0.16999820386553161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>0.65921302158214279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="7">
+        <f>H13/(H13+G13)</f>
+        <v>0.8534309827254779</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="8">
+        <f>K13/(K13+J13)</f>
+        <v>0.82481105428277846</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="2">
+        <f>-2.0698 + 1.7412*C19</f>
+        <v>1.3777760000000003</v>
+      </c>
+      <c r="G19" s="2">
+        <f>(B19 - F19)^2</f>
+        <v>3.6185170175999898E-2</v>
+      </c>
+      <c r="H19" s="2">
+        <f>(F19 - AVERAGE($B$19:$B$25))^2</f>
+        <v>0.13422467401273466</v>
+      </c>
+      <c r="I19" s="11">
+        <f>-2.2858 + 2.1683*D19</f>
+        <v>1.7689209999999997</v>
+      </c>
+      <c r="J19" s="11">
+        <f>(B19 - I19)^2</f>
+        <v>4.0369248240999869E-2</v>
+      </c>
+      <c r="K19" s="11">
+        <f>(I19 - AVERAGE($B$2:$B$8))^2</f>
+        <v>6.1395636344895217E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.591</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="2">
+        <f t="shared" ref="F20:F25" si="6">-2.0698 + 1.7412*C20</f>
+        <v>1.5518960000000006</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" ref="G20:G25" si="7">(B20 - F20)^2</f>
+        <v>1.5291228159999501E-3</v>
+      </c>
+      <c r="H20" s="2">
+        <f>(F20 - AVERAGE($B$19:$B$25))^2</f>
+        <v>3.6958854081306003E-2</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" ref="I20:I25" si="8">-2.2858 + 2.1683*D20</f>
+        <v>1.3135779999999997</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" ref="J20:J25" si="9">(B20 - I20)^2</f>
+        <v>7.6962966084000162E-2</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" ref="K20:K25" si="10">(I20 - AVERAGE($B$2:$B$8))^2</f>
+        <v>0.1853860962064495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.79</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="2">
+        <f t="shared" si="6"/>
+        <v>1.7086040000000002</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="7"/>
+        <v>2.67662688160001E-2</v>
+      </c>
+      <c r="H21" s="2">
+        <f>(F21 - AVERAGE($B$19:$B$25))^2</f>
+        <v>1.2630103670204125E-3</v>
+      </c>
+      <c r="I21" s="11">
+        <f t="shared" si="8"/>
+        <v>1.5954569999999997</v>
+      </c>
+      <c r="J21" s="11">
+        <f t="shared" si="9"/>
+        <v>2.5459088489999749E-3</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="10"/>
+        <v>2.2107484114306304E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.488</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3255400000000002</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="7"/>
+        <v>2.6393251599999945E-2</v>
+      </c>
+      <c r="H22" s="2">
+        <f>(F22 - AVERAGE($B$19:$B$25))^2</f>
+        <v>0.17522835200816339</v>
+      </c>
+      <c r="I22" s="11">
+        <f t="shared" si="8"/>
+        <v>1.3352609999999996</v>
+      </c>
+      <c r="J22" s="11">
+        <f t="shared" si="9"/>
+        <v>2.3329202121000123E-2</v>
+      </c>
+      <c r="K22" s="11">
+        <f t="shared" si="10"/>
+        <v>0.16718437310059242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.81</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="2">
+        <f t="shared" si="6"/>
+        <v>1.6737800000000003</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="7"/>
+        <v>3.7550688400000108E-2</v>
+      </c>
+      <c r="H23" s="2">
+        <f>(F23 - AVERAGE($B$19:$B$25))^2</f>
+        <v>4.9509316653061266E-3</v>
+      </c>
+      <c r="I23" s="11">
+        <f t="shared" si="8"/>
+        <v>1.6388229999999999</v>
+      </c>
+      <c r="J23" s="11">
+        <f t="shared" si="9"/>
+        <v>2.522474532899998E-2</v>
+      </c>
+      <c r="K23" s="11">
+        <f t="shared" si="10"/>
+        <v>1.1092272308591916E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2.3679999999999999</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.52</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.14</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="2">
+        <f t="shared" si="6"/>
+        <v>2.3180240000000003</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="7"/>
+        <v>2.4976005759999578E-3</v>
+      </c>
+      <c r="H24" s="2">
+        <f>(F24 - AVERAGE($B$19:$B$25))^2</f>
+        <v>0.32933956612702042</v>
+      </c>
+      <c r="I24" s="11">
+        <f t="shared" si="8"/>
+        <v>2.3543620000000001</v>
+      </c>
+      <c r="J24" s="11">
+        <f t="shared" si="9"/>
+        <v>1.85995043999995E-4</v>
+      </c>
+      <c r="K24" s="11">
+        <f t="shared" si="10"/>
+        <v>0.37236740230930582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.169</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.48</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="2">
+        <f t="shared" si="6"/>
+        <v>2.2483760000000004</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="7"/>
+        <v>6.300549376000053E-3</v>
+      </c>
+      <c r="H25" s="2">
+        <f>(F25 - AVERAGE($B$19:$B$25))^2</f>
+        <v>0.25425106235559192</v>
+      </c>
+      <c r="I25" s="11">
+        <f t="shared" si="8"/>
+        <v>2.2025809999999995</v>
+      </c>
+      <c r="J25" s="11">
+        <f t="shared" si="9"/>
+        <v>1.1276835609999609E-3</v>
+      </c>
+      <c r="K25" s="11">
+        <f t="shared" si="10"/>
+        <v>0.21016553082630535</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="1">
+        <v>2.36</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="B28" s="4"/>
+      <c r="C28" s="1">
         <v>2.44</v>
       </c>
-      <c r="D11">
+      <c r="D28" s="1">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="2">
+        <f>SUM(G19:G25)</f>
+        <v>0.13722265176000001</v>
+      </c>
+      <c r="H30" s="2">
+        <f>SUM(H19:H25)</f>
+        <v>0.93621645061714298</v>
+      </c>
+      <c r="J30" s="11">
+        <f>SUM(J19:J25)</f>
+        <v>0.16974574922900007</v>
+      </c>
+      <c r="K30" s="11">
+        <f>SUM(K19:K25)</f>
+        <v>0.96891711522900015</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G12">
-        <f>H10/(H10+G10)</f>
-        <v>0.8534309827254779</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H32" s="3">
+        <f>H30/(H30+G30)</f>
+        <v>0.87216540607089965</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J12">
-        <f>K10/(K10+J10)</f>
-        <v>0.82482314011638769</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>1.5680000000000001</v>
-      </c>
-      <c r="C16">
-        <v>1.98</v>
-      </c>
-      <c r="D16">
-        <v>1.87</v>
-      </c>
-      <c r="F16">
-        <f>-2.0698 + 1.7412*C16</f>
-        <v>1.3777760000000003</v>
-      </c>
-      <c r="G16" s="1">
-        <f>(B16 - F16)^2</f>
-        <v>3.6185170175999898E-2</v>
-      </c>
-      <c r="H16" s="1">
-        <f>(F16 - AVERAGE($B$2:$B$8))^2</f>
-        <v>0.13422467401273466</v>
-      </c>
-      <c r="I16">
-        <f>-2.1682 + 2.2858*D16</f>
-        <v>2.1062460000000001</v>
-      </c>
-      <c r="J16" s="2">
-        <f>(D16 - I16)^2</f>
-        <v>5.5812172515999979E-2</v>
-      </c>
-      <c r="K16" s="2">
-        <f>(I16 - AVERAGE($D$2:$D$8))^2</f>
-        <v>6.1342693332326469E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>1.591</v>
-      </c>
-      <c r="C17">
-        <v>2.08</v>
-      </c>
-      <c r="D17">
-        <v>1.66</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ref="F17:F22" si="5">-2.0698 + 1.7412*C17</f>
-        <v>1.5518960000000006</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" ref="G17:G22" si="6">(B17 - F17)^2</f>
-        <v>1.5291228159999501E-3</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" ref="H17:H22" si="7">(F17 - AVERAGE($B$2:$B$8))^2</f>
-        <v>3.6958854081306003E-2</v>
-      </c>
-      <c r="I17">
-        <f t="shared" ref="I17:I22" si="8">-2.1682 + 2.2858*D17</f>
-        <v>1.6262279999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>1.5449999999999999</v>
-      </c>
-      <c r="C18">
-        <v>2.17</v>
-      </c>
-      <c r="D18">
-        <v>1.79</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="5"/>
-        <v>1.7086040000000002</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="6"/>
-        <v>2.67662688160001E-2</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="7"/>
-        <v>1.2630103670204125E-3</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="8"/>
-        <v>1.9233819999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>1.488</v>
-      </c>
-      <c r="C19">
-        <v>1.95</v>
-      </c>
-      <c r="D19">
-        <v>1.67</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="5"/>
-        <v>1.3255400000000002</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="6"/>
-        <v>2.6393251599999945E-2</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="7"/>
-        <v>0.17522835200816339</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="8"/>
-        <v>1.6490859999999996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>1.48</v>
-      </c>
-      <c r="C20">
-        <v>2.15</v>
-      </c>
-      <c r="D20">
-        <v>1.81</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="5"/>
-        <v>1.6737800000000003</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="6"/>
-        <v>3.7550688400000108E-2</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="7"/>
-        <v>4.9509316653061266E-3</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="8"/>
-        <v>1.9690980000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>2.3679999999999999</v>
-      </c>
-      <c r="C21">
-        <v>2.52</v>
-      </c>
-      <c r="D21">
-        <v>2.14</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="5"/>
-        <v>2.3180240000000003</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="6"/>
-        <v>2.4976005759999578E-3</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="7"/>
-        <v>0.32933956612702042</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="8"/>
-        <v>2.7234120000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22">
-        <v>2.169</v>
-      </c>
-      <c r="C22">
-        <v>2.48</v>
-      </c>
-      <c r="D22">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="5"/>
-        <v>2.2483760000000004</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="6"/>
-        <v>6.300549376000053E-3</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="7"/>
-        <v>0.25425106235559192</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="8"/>
-        <v>2.5634059999999992</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23">
-        <v>2.36</v>
-      </c>
-      <c r="D23">
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="D24">
-        <v>2.1</v>
-      </c>
-      <c r="G24" s="1">
-        <f>SUM(G16:G22)</f>
-        <v>0.13722265176000001</v>
-      </c>
-      <c r="H24" s="1">
-        <f>SUM(H16:H22)</f>
-        <v>0.93621645061714298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25">
-        <v>2.44</v>
-      </c>
-      <c r="D25">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26">
-        <f>H24/(H24+G24)</f>
-        <v>0.87216540607089965</v>
+      <c r="K32" s="10">
+        <f>K30/(K30+J30)</f>
+        <v>0.85092536647377326</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>